--- a/catalogo/LISTA (1).xlsx
+++ b/catalogo/LISTA (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\JavaProjects\excel-pdf\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7B7F7A-2205-4037-BE51-082B7ACDBE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CC9D5-DB4C-47CC-800C-4A27BFADDC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de Precio" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <dimension ref="A1:G4197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -997,7 +997,9 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,7 +1042,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="3">
-        <v>1694269</v>
+        <v>1694269.55</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -1086,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="3">
-        <v>722571</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -1109,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="3">
-        <v>812130</v>
+        <v>812130.15645498398</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>23</v>

--- a/catalogo/LISTA (1).xlsx
+++ b/catalogo/LISTA (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\JavaProjects\excel-pdf\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CC9D5-DB4C-47CC-800C-4A27BFADDC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8726F27-9B39-4F25-981D-85104EAD6FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3204" yWindow="3204" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:G4197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1141986</v>
+        <v>13.5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1026,9 +1026,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1141702</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1071,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1141715</v>
+        <v>14.2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>

--- a/catalogo/LISTA (1).xlsx
+++ b/catalogo/LISTA (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\JavaProjects\excel-pdf\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8726F27-9B39-4F25-981D-85104EAD6FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873EB04-5669-4251-8C52-64DBACD5E292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="3552" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de Precio" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -615,6 +615,7 @@
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,7 +938,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="4" customWidth="1"/>
@@ -1026,7 +1027,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="7">
+        <v>5.9000025999999997</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
